--- a/Excel2Proto/Excel/Test.xlsx
+++ b/Excel2Proto/Excel/Test.xlsx
@@ -21,7 +21,7 @@
     <author>wanderer</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
+    <comment ref="D18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,61 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanderer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+General: 英雄(将军)
+Spell: 法术
+Minion:仆从、部下
+Artifact: 附件、附魔
+Mech: 机甲</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wanderer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Lyonar:
+Songhai:
+vetruvian:
+abyssian
+magmar
+vanar
+neutkal:</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,21 +134,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
-  <si>
-    <t>#import</t>
-  </si>
-  <si>
-    <t>?.xlsx</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>#message</t>
   </si>
   <si>
+    <t>Collect</t>
+  </si>
+  <si>
+    <t>#type</t>
+  </si>
+  <si>
+    <t>repeated Card</t>
+  </si>
+  <si>
+    <t>#var</t>
+  </si>
+  <si>
+    <t>cards</t>
+  </si>
+  <si>
+    <t>#desc</t>
+  </si>
+  <si>
+    <t>卡牌</t>
+  </si>
+  <si>
+    <t>#ref#001</t>
+  </si>
+  <si>
     <t>Card</t>
   </si>
   <si>
-    <t>#type</t>
+    <t>#001</t>
   </si>
   <si>
     <t>int32</t>
@@ -103,9 +175,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>#var</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -145,9 +214,6 @@
     <t>skill_desc</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>唯一标识</t>
   </si>
   <si>
@@ -187,16 +253,43 @@
     <t>技能描述</t>
   </si>
   <si>
-    <t>SearchRequestAll</t>
-  </si>
-  <si>
-    <t>repeated SearchRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#var </t>
-  </si>
-  <si>
-    <t>results</t>
+    <t>as</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>agfsdg</t>
+  </si>
+  <si>
+    <t>hgfg</t>
+  </si>
+  <si>
+    <t>yrt</t>
+  </si>
+  <si>
+    <t>rty</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>fds</t>
+  </si>
+  <si>
+    <t>dfg</t>
+  </si>
+  <si>
+    <t>rtyrty</t>
+  </si>
+  <si>
+    <t>ryt</t>
+  </si>
+  <si>
+    <t>uy</t>
   </si>
 </sst>
 </file>
@@ -209,14 +302,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,48 +771,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,97 +825,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1188,15 +1274,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
@@ -1211,178 +1297,272 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s">
+      <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="I5" t="s">
+      <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="J5" t="s">
+      <c r="E18" t="s">
         <v>16</v>
       </c>
-      <c r="K5" t="s">
+      <c r="F18" t="s">
         <v>17</v>
       </c>
-      <c r="L5" t="s">
+      <c r="G18" t="s">
         <v>18</v>
       </c>
-      <c r="M5" t="s">
+      <c r="H18" t="s">
         <v>19</v>
       </c>
-      <c r="N5" t="s">
+      <c r="I18" t="s">
         <v>20</v>
       </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
+      <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="H6" t="s">
+      <c r="D19" t="s">
         <v>28</v>
       </c>
-      <c r="I6" t="s">
+      <c r="E19" t="s">
         <v>29</v>
       </c>
-      <c r="J6" t="s">
+      <c r="F19" t="s">
         <v>30</v>
       </c>
-      <c r="K6" t="s">
+      <c r="G19" t="s">
         <v>31</v>
       </c>
-      <c r="L6" t="s">
+      <c r="H19" t="s">
         <v>32</v>
       </c>
-      <c r="M6" t="s">
+      <c r="I19" t="s">
         <v>33</v>
       </c>
-      <c r="N6" t="s">
+      <c r="J19" t="s">
         <v>34</v>
       </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="9" spans="4:10">
-      <c r="D9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+    <row r="20" spans="2:14">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="21" spans="2:14">
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
+    <row r="35" spans="4:5">
+      <c r="D35"/>
+      <c r="E35"/>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
+    <row r="39" spans="4:10">
+      <c r="D39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="2"/>
+    <row r="43" spans="2:2">
+      <c r="B43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel2Proto/Excel/Test.xlsx
+++ b/Excel2Proto/Excel/Test.xlsx
@@ -50,60 +50,6 @@
       </text>
     </comment>
     <comment ref="E18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>wanderer:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-General: 英雄(将军)
-Spell: 法术
-Minion:仆从、部下
-Artifact: 附件、附魔
-Mech: 机甲</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D35" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>wanderer:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-Lyonar:
-Songhai:
-vetruvian:
-abyssian
-magmar
-vanar
-neutkal:</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1277,7 +1223,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1550,10 +1496,6 @@
       <c r="N21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="4:5">
-      <c r="D35"/>
-      <c r="E35"/>
     </row>
     <row r="39" spans="4:10">
       <c r="D39" s="1"/>

--- a/Excel2Proto/Excel/Test.xlsx
+++ b/Excel2Proto/Excel/Test.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="11940"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Collect" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -21,7 +21,7 @@
     <author>wanderer</author>
   </authors>
   <commentList>
-    <comment ref="D18" authorId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,86 +80,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>#message</t>
   </si>
   <si>
-    <t>Collect</t>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>#001</t>
   </si>
   <si>
     <t>#type</t>
   </si>
   <si>
-    <t>repeated Card</t>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>#var</t>
   </si>
   <si>
-    <t>cards</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>rarity</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>copies</t>
+  </si>
+  <si>
+    <t>skill_desc</t>
   </si>
   <si>
     <t>#desc</t>
   </si>
   <si>
-    <t>卡牌</t>
-  </si>
-  <si>
-    <t>#ref#001</t>
-  </si>
-  <si>
-    <t>Card</t>
-  </si>
-  <si>
-    <t>#001</t>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>rarity</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>copies</t>
-  </si>
-  <si>
-    <t>skill_desc</t>
-  </si>
-  <si>
     <t>唯一标识</t>
   </si>
   <si>
@@ -208,34 +193,22 @@
     <t>agfsdg</t>
   </si>
   <si>
-    <t>hgfg</t>
-  </si>
-  <si>
     <t>yrt</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>fds</t>
+  </si>
+  <si>
+    <t>dfg</t>
+  </si>
+  <si>
     <t>rty</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>fds</t>
-  </si>
-  <si>
-    <t>dfg</t>
-  </si>
-  <si>
-    <t>rtyrty</t>
-  </si>
-  <si>
-    <t>ryt</t>
-  </si>
-  <si>
-    <t>uy</t>
   </si>
 </sst>
 </file>
@@ -1220,10 +1193,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1235,276 +1208,239 @@
     <col min="6" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="I5">
         <v>3</v>
       </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="2:14">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
+    <row r="24" spans="4:10">
+      <c r="D24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" t="s">
-        <v>11</v>
-      </c>
-      <c r="N17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21" t="s">
-        <v>45</v>
-      </c>
-      <c r="N21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="4:10">
-      <c r="D39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="2"/>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel2Proto/Excel/Test.xlsx
+++ b/Excel2Proto/Excel/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Collect" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>#message</t>
   </si>
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1351,7 +1351,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:13">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1388,11 +1388,8 @@
       <c r="M5">
         <v>2</v>
       </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1428,9 +1425,6 @@
       </c>
       <c r="M6">
         <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="24" spans="4:10">
